--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori2/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori2/99/word_level_predictions_99.xlsx
@@ -4321,7 +4321,7 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G75" s="2" t="b">
@@ -4333,11 +4333,11 @@
         </is>
       </c>
       <c r="I75" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K75" s="2" t="b">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4385,11 +4385,11 @@
         </is>
       </c>
       <c r="I76" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K76" s="2" t="b">
@@ -4437,11 +4437,11 @@
         </is>
       </c>
       <c r="I77" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K77" s="2" t="b">
@@ -4489,11 +4489,11 @@
         </is>
       </c>
       <c r="I78" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K78" s="2" t="b">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="F116" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G116" s="2" t="b">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="L116" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6534,364 +6534,364 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
+      <c r="A118" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C118" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D118" t="n">
+      <c r="D118" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="E118" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G118" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I118" t="b">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K118" t="b">
-        <v>1</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G118" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J118" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L118" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
+      <c r="A119" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C119" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D119" t="n">
+      <c r="D119" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G119" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I119" t="b">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K119" t="b">
-        <v>1</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="E119" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F119" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G119" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L119" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
+      <c r="A120" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C120" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D120" t="n">
+      <c r="D120" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G120" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K120" t="b">
-        <v>1</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="E120" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G120" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L120" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
+      <c r="A121" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C121" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D121" t="n">
+      <c r="D121" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K121" t="b">
-        <v>1</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
+      <c r="A122" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C122" s="2" t="inlineStr">
         <is>
           <t>arrange</t>
         </is>
       </c>
-      <c r="D122" t="n">
+      <c r="D122" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G122" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I122" t="b">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K122" t="b">
-        <v>1</v>
-      </c>
-      <c r="L122" t="inlineStr">
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L122" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
+      <c r="A123" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C123" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D123" t="n">
+      <c r="D123" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
+      <c r="A124" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C124" s="2" t="inlineStr">
         <is>
           <t>repairs</t>
         </is>
       </c>
-      <c r="D124" t="n">
+      <c r="D124" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="E124" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="F124" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12329,7 +12329,7 @@
       </c>
       <c r="F229" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G229" s="2" t="b">
@@ -12341,11 +12341,11 @@
         </is>
       </c>
       <c r="I229" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K229" s="2" t="b">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="L229" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12393,11 +12393,11 @@
         </is>
       </c>
       <c r="I230" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J230" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K230" s="2" t="b">
@@ -12445,11 +12445,11 @@
         </is>
       </c>
       <c r="I231" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K231" s="2" t="b">
@@ -12485,7 +12485,7 @@
       </c>
       <c r="F232" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G232" s="2" t="b">
@@ -12497,11 +12497,11 @@
         </is>
       </c>
       <c r="I232" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J232" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K232" s="2" t="b">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="L232" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="F233" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G233" s="2" t="b">
@@ -12549,11 +12549,11 @@
         </is>
       </c>
       <c r="I233" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K233" s="2" t="b">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="L233" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12589,7 +12589,7 @@
       </c>
       <c r="F234" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G234" s="2" t="b">
@@ -12601,11 +12601,11 @@
         </is>
       </c>
       <c r="I234" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K234" s="2" t="b">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="L234" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="F235" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G235" s="2" t="b">
@@ -12653,11 +12653,11 @@
         </is>
       </c>
       <c r="I235" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J235" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K235" s="2" t="b">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="L235" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G236" s="2" t="b">
@@ -12705,11 +12705,11 @@
         </is>
       </c>
       <c r="I236" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J236" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K236" s="2" t="b">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="L236" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="F238" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G238" s="2" t="b">
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="L238" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="F239" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G239" s="2" t="b">
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="L239" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F240" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G240" s="2" t="b">
@@ -12913,11 +12913,11 @@
         </is>
       </c>
       <c r="I240" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K240" s="2" t="b">
@@ -12925,7 +12925,7 @@
       </c>
       <c r="L240" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12965,11 +12965,11 @@
         </is>
       </c>
       <c r="I241" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K241" s="2" t="b">
@@ -13941,7 +13941,7 @@
       </c>
       <c r="F260" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G260" s="2" t="b">
@@ -13965,7 +13965,7 @@
       </c>
       <c r="L260" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13993,7 +13993,7 @@
       </c>
       <c r="F261" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G261" s="2" t="b">
@@ -14017,7 +14017,7 @@
       </c>
       <c r="L261" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14045,7 +14045,7 @@
       </c>
       <c r="F262" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G262" s="2" t="b">
@@ -14069,7 +14069,7 @@
       </c>
       <c r="L262" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="F263" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G263" s="2" t="b">
@@ -14121,7 +14121,7 @@
       </c>
       <c r="L263" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14149,7 +14149,7 @@
       </c>
       <c r="F264" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G264" s="2" t="b">
@@ -14173,7 +14173,7 @@
       </c>
       <c r="L264" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14201,7 +14201,7 @@
       </c>
       <c r="F265" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G265" s="2" t="b">
@@ -14225,7 +14225,7 @@
       </c>
       <c r="L265" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14357,7 +14357,7 @@
       </c>
       <c r="F268" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G268" s="2" t="b">
@@ -14381,7 +14381,7 @@
       </c>
       <c r="L268" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="F269" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G269" s="2" t="b">
@@ -14433,7 +14433,7 @@
       </c>
       <c r="L269" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14461,7 +14461,7 @@
       </c>
       <c r="F270" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G270" s="2" t="b">
@@ -14485,7 +14485,7 @@
       </c>
       <c r="L270" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14513,7 +14513,7 @@
       </c>
       <c r="F271" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G271" s="2" t="b">
@@ -14537,7 +14537,7 @@
       </c>
       <c r="L271" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14565,7 +14565,7 @@
       </c>
       <c r="F272" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G272" s="2" t="b">
@@ -14589,7 +14589,7 @@
       </c>
       <c r="L272" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="F273" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G273" s="2" t="b">
@@ -14641,7 +14641,7 @@
       </c>
       <c r="L273" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -22989,7 +22989,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G434" t="b">
@@ -23013,57 +23013,57 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="435">
-      <c r="A435" t="n">
+      <c r="A435" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B435" t="inlineStr">
+      <c r="B435" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator . Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C435" t="inlineStr">
+      <c r="C435" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D435" t="n">
+      <c r="D435" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E435" t="inlineStr">
+      <c r="E435" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F435" t="inlineStr">
+      <c r="F435" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G435" t="b">
-        <v>1</v>
-      </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I435" t="b">
-        <v>1</v>
-      </c>
-      <c r="J435" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K435" t="b">
-        <v>1</v>
-      </c>
-      <c r="L435" t="inlineStr">
+      <c r="G435" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H435" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I435" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J435" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K435" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L435" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -23954,366 +23954,366 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" t="n">
+      <c r="A453" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B453" t="inlineStr">
+      <c r="B453" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C453" t="inlineStr">
+      <c r="C453" s="2" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D453" t="n">
+      <c r="D453" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E453" t="inlineStr">
+      <c r="E453" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F453" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G453" t="b">
-        <v>1</v>
-      </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I453" t="b">
-        <v>1</v>
-      </c>
-      <c r="J453" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K453" t="b">
-        <v>1</v>
-      </c>
-      <c r="L453" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F453" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G453" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H453" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I453" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J453" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K453" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L453" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="454">
-      <c r="A454" t="n">
+      <c r="A454" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B454" t="inlineStr">
+      <c r="B454" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C454" t="inlineStr">
+      <c r="C454" s="2" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D454" t="n">
+      <c r="D454" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E454" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F454" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G454" t="b">
-        <v>1</v>
-      </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I454" t="b">
-        <v>1</v>
-      </c>
-      <c r="J454" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K454" t="b">
-        <v>1</v>
-      </c>
-      <c r="L454" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E454" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F454" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G454" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H454" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I454" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J454" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K454" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L454" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="n">
+      <c r="A455" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B455" t="inlineStr">
+      <c r="B455" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C455" t="inlineStr">
+      <c r="C455" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D455" t="n">
+      <c r="D455" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E455" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F455" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G455" t="b">
-        <v>1</v>
-      </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I455" t="b">
-        <v>1</v>
-      </c>
-      <c r="J455" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K455" t="b">
-        <v>1</v>
-      </c>
-      <c r="L455" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E455" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F455" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G455" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H455" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I455" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J455" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K455" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L455" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="n">
+      <c r="A456" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B456" t="inlineStr">
+      <c r="B456" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C456" t="inlineStr">
+      <c r="C456" s="2" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D456" t="n">
+      <c r="D456" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E456" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F456" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G456" t="b">
-        <v>1</v>
-      </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I456" t="b">
-        <v>1</v>
-      </c>
-      <c r="J456" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K456" t="b">
-        <v>1</v>
-      </c>
-      <c r="L456" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E456" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F456" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G456" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H456" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I456" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J456" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K456" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L456" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="n">
+      <c r="A457" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B457" t="inlineStr">
+      <c r="B457" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr">
+      <c r="C457" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D457" t="n">
+      <c r="D457" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E457" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F457" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G457" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I457" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K457" t="b">
-        <v>1</v>
-      </c>
-      <c r="L457" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E457" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F457" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L457" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="n">
+      <c r="A458" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B458" t="inlineStr">
+      <c r="B458" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr">
+      <c r="C458" s="2" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D458" t="n">
+      <c r="D458" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E458" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G458" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I458" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K458" t="b">
-        <v>1</v>
-      </c>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E458" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F458" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L458" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="n">
+      <c r="A459" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B459" t="inlineStr">
+      <c r="B459" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C459" t="inlineStr">
+      <c r="C459" s="2" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D459" t="n">
+      <c r="D459" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E459" t="inlineStr">
+      <c r="E459" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F459" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G459" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K459" t="b">
-        <v>1</v>
-      </c>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F459" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K459" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L459" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori2/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori2/99/word_level_predictions_99.xlsx
@@ -4321,7 +4321,7 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G75" s="2" t="b">
@@ -4333,11 +4333,11 @@
         </is>
       </c>
       <c r="I75" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K75" s="2" t="b">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4385,11 +4385,11 @@
         </is>
       </c>
       <c r="I76" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K76" s="2" t="b">
@@ -4437,11 +4437,11 @@
         </is>
       </c>
       <c r="I77" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K77" s="2" t="b">
@@ -4489,11 +4489,11 @@
         </is>
       </c>
       <c r="I78" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K78" s="2" t="b">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="F116" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G116" s="2" t="b">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="L116" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -6534,364 +6534,364 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" t="n">
         <v>9</v>
       </c>
-      <c r="B118" s="2" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C118" s="2" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D118" s="2" t="n">
+      <c r="D118" t="n">
         <v>7</v>
       </c>
-      <c r="E118" s="2" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F118" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G118" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L118" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G118" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I118" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K118" t="b">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" t="n">
         <v>9</v>
       </c>
-      <c r="B119" s="2" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C119" s="2" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D119" s="2" t="n">
+      <c r="D119" t="n">
         <v>8</v>
       </c>
-      <c r="E119" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F119" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G119" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L119" s="2" t="inlineStr">
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I119" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K119" t="b">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" t="n">
         <v>9</v>
       </c>
-      <c r="B120" s="2" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C120" s="2" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D120" s="2" t="n">
+      <c r="D120" t="n">
         <v>9</v>
       </c>
-      <c r="E120" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F120" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G120" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L120" s="2" t="inlineStr">
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" t="n">
         <v>9</v>
       </c>
-      <c r="B121" s="2" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C121" s="2" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D121" s="2" t="n">
+      <c r="D121" t="n">
         <v>10</v>
       </c>
-      <c r="E121" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F121" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L121" s="2" t="inlineStr">
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" t="n">
         <v>9</v>
       </c>
-      <c r="B122" s="2" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C122" s="2" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>arrange</t>
         </is>
       </c>
-      <c r="D122" s="2" t="n">
+      <c r="D122" t="n">
         <v>11</v>
       </c>
-      <c r="E122" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F122" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G122" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L122" s="2" t="inlineStr">
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G122" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" t="n">
         <v>9</v>
       </c>
-      <c r="B123" s="2" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C123" s="2" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D123" s="2" t="n">
+      <c r="D123" t="n">
         <v>12</v>
       </c>
-      <c r="E123" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F123" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="inlineStr">
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" t="n">
         <v>9</v>
       </c>
-      <c r="B124" s="2" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C124" s="2" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>repairs</t>
         </is>
       </c>
-      <c r="D124" s="2" t="n">
+      <c r="D124" t="n">
         <v>13</v>
       </c>
-      <c r="E124" s="2" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F124" s="2" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="inlineStr">
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12329,7 +12329,7 @@
       </c>
       <c r="F229" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G229" s="2" t="b">
@@ -12341,11 +12341,11 @@
         </is>
       </c>
       <c r="I229" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K229" s="2" t="b">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="L229" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12393,11 +12393,11 @@
         </is>
       </c>
       <c r="I230" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K230" s="2" t="b">
@@ -12445,11 +12445,11 @@
         </is>
       </c>
       <c r="I231" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K231" s="2" t="b">
@@ -12485,7 +12485,7 @@
       </c>
       <c r="F232" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G232" s="2" t="b">
@@ -12497,11 +12497,11 @@
         </is>
       </c>
       <c r="I232" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K232" s="2" t="b">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="L232" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="F233" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G233" s="2" t="b">
@@ -12549,11 +12549,11 @@
         </is>
       </c>
       <c r="I233" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K233" s="2" t="b">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="L233" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12589,7 +12589,7 @@
       </c>
       <c r="F234" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G234" s="2" t="b">
@@ -12601,11 +12601,11 @@
         </is>
       </c>
       <c r="I234" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K234" s="2" t="b">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="L234" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="F235" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G235" s="2" t="b">
@@ -12653,11 +12653,11 @@
         </is>
       </c>
       <c r="I235" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J235" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K235" s="2" t="b">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="L235" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G236" s="2" t="b">
@@ -12705,11 +12705,11 @@
         </is>
       </c>
       <c r="I236" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K236" s="2" t="b">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="L236" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="F238" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G238" s="2" t="b">
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="L238" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="F239" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G239" s="2" t="b">
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="L239" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F240" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G240" s="2" t="b">
@@ -12913,11 +12913,11 @@
         </is>
       </c>
       <c r="I240" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K240" s="2" t="b">
@@ -12925,7 +12925,7 @@
       </c>
       <c r="L240" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12965,11 +12965,11 @@
         </is>
       </c>
       <c r="I241" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K241" s="2" t="b">
@@ -13941,7 +13941,7 @@
       </c>
       <c r="F260" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G260" s="2" t="b">
@@ -13965,7 +13965,7 @@
       </c>
       <c r="L260" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -13993,7 +13993,7 @@
       </c>
       <c r="F261" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G261" s="2" t="b">
@@ -14017,7 +14017,7 @@
       </c>
       <c r="L261" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14045,7 +14045,7 @@
       </c>
       <c r="F262" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G262" s="2" t="b">
@@ -14069,7 +14069,7 @@
       </c>
       <c r="L262" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="F263" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G263" s="2" t="b">
@@ -14121,7 +14121,7 @@
       </c>
       <c r="L263" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14149,7 +14149,7 @@
       </c>
       <c r="F264" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G264" s="2" t="b">
@@ -14173,7 +14173,7 @@
       </c>
       <c r="L264" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14201,7 +14201,7 @@
       </c>
       <c r="F265" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G265" s="2" t="b">
@@ -14225,7 +14225,7 @@
       </c>
       <c r="L265" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14357,7 +14357,7 @@
       </c>
       <c r="F268" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G268" s="2" t="b">
@@ -14381,7 +14381,7 @@
       </c>
       <c r="L268" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="F269" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G269" s="2" t="b">
@@ -14433,7 +14433,7 @@
       </c>
       <c r="L269" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14461,7 +14461,7 @@
       </c>
       <c r="F270" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G270" s="2" t="b">
@@ -14485,7 +14485,7 @@
       </c>
       <c r="L270" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14513,7 +14513,7 @@
       </c>
       <c r="F271" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G271" s="2" t="b">
@@ -14537,7 +14537,7 @@
       </c>
       <c r="L271" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14565,7 +14565,7 @@
       </c>
       <c r="F272" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G272" s="2" t="b">
@@ -14589,7 +14589,7 @@
       </c>
       <c r="L272" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="F273" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G273" s="2" t="b">
@@ -14641,7 +14641,7 @@
       </c>
       <c r="L273" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -22989,81 +22989,81 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G434" t="b">
+        <v>1</v>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I434" t="b">
+        <v>1</v>
+      </c>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K434" t="b">
+        <v>1</v>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>35</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Running Flight Simulator . Restart aircraft to take off .</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D435" t="n">
+        <v>8</v>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G434" t="b">
-        <v>1</v>
-      </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I434" t="b">
-        <v>1</v>
-      </c>
-      <c r="J434" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K434" t="b">
-        <v>1</v>
-      </c>
-      <c r="L434" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B435" s="2" t="inlineStr">
-        <is>
-          <t>Running Flight Simulator . Restart aircraft to take off .</t>
-        </is>
-      </c>
-      <c r="C435" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D435" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E435" s="2" t="inlineStr">
+      <c r="F435" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F435" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G435" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H435" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I435" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J435" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K435" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L435" s="2" t="inlineStr">
+      <c r="G435" t="b">
+        <v>1</v>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I435" t="b">
+        <v>1</v>
+      </c>
+      <c r="J435" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K435" t="b">
+        <v>1</v>
+      </c>
+      <c r="L435" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -23954,366 +23954,366 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="2" t="n">
+      <c r="A453" t="n">
         <v>37</v>
       </c>
-      <c r="B453" s="2" t="inlineStr">
+      <c r="B453" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C453" s="2" t="inlineStr">
+      <c r="C453" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D453" s="2" t="n">
+      <c r="D453" t="n">
         <v>8</v>
       </c>
-      <c r="E453" s="2" t="inlineStr">
+      <c r="E453" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F453" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G453" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H453" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I453" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J453" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K453" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L453" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G453" t="b">
+        <v>1</v>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I453" t="b">
+        <v>1</v>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K453" t="b">
+        <v>1</v>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="2" t="n">
+      <c r="A454" t="n">
         <v>37</v>
       </c>
-      <c r="B454" s="2" t="inlineStr">
+      <c r="B454" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C454" s="2" t="inlineStr">
+      <c r="C454" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D454" s="2" t="n">
+      <c r="D454" t="n">
         <v>9</v>
       </c>
-      <c r="E454" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F454" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G454" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H454" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I454" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J454" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K454" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L454" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G454" t="b">
+        <v>1</v>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I454" t="b">
+        <v>1</v>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K454" t="b">
+        <v>1</v>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="2" t="n">
+      <c r="A455" t="n">
         <v>37</v>
       </c>
-      <c r="B455" s="2" t="inlineStr">
+      <c r="B455" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C455" s="2" t="inlineStr">
+      <c r="C455" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D455" s="2" t="n">
+      <c r="D455" t="n">
         <v>10</v>
       </c>
-      <c r="E455" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F455" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G455" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H455" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I455" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J455" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K455" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L455" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G455" t="b">
+        <v>1</v>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I455" t="b">
+        <v>1</v>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K455" t="b">
+        <v>1</v>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="2" t="n">
+      <c r="A456" t="n">
         <v>37</v>
       </c>
-      <c r="B456" s="2" t="inlineStr">
+      <c r="B456" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C456" s="2" t="inlineStr">
+      <c r="C456" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D456" s="2" t="n">
+      <c r="D456" t="n">
         <v>11</v>
       </c>
-      <c r="E456" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F456" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G456" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H456" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I456" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J456" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K456" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L456" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G456" t="b">
+        <v>1</v>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I456" t="b">
+        <v>1</v>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K456" t="b">
+        <v>1</v>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="2" t="n">
+      <c r="A457" t="n">
         <v>37</v>
       </c>
-      <c r="B457" s="2" t="inlineStr">
+      <c r="B457" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C457" s="2" t="inlineStr">
+      <c r="C457" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D457" s="2" t="n">
+      <c r="D457" t="n">
         <v>12</v>
       </c>
-      <c r="E457" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F457" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L457" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G457" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I457" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K457" t="b">
+        <v>1</v>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="2" t="n">
+      <c r="A458" t="n">
         <v>37</v>
       </c>
-      <c r="B458" s="2" t="inlineStr">
+      <c r="B458" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C458" s="2" t="inlineStr">
+      <c r="C458" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D458" s="2" t="n">
+      <c r="D458" t="n">
         <v>13</v>
       </c>
-      <c r="E458" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F458" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L458" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K458" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="2" t="n">
+      <c r="A459" t="n">
         <v>37</v>
       </c>
-      <c r="B459" s="2" t="inlineStr">
+      <c r="B459" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C459" s="2" t="inlineStr">
+      <c r="C459" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D459" s="2" t="n">
+      <c r="D459" t="n">
         <v>14</v>
       </c>
-      <c r="E459" s="2" t="inlineStr">
+      <c r="E459" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F459" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L459" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G459" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K459" t="b">
+        <v>1</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
